--- a/WebContent/仓库管理表.xlsx
+++ b/WebContent/仓库管理表.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\liujie\Desktop\项目\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-30" windowWidth="19770" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -37,9 +33,6 @@
   </si>
   <si>
     <t>仓库名称</t>
-  </si>
-  <si>
-    <t>EMP_ID</t>
   </si>
   <si>
     <t>SIZE</t>
@@ -392,10 +385,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单位(件)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -613,10 +602,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cus_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -680,23 +665,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>output_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_id</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>checkout(IQC检验表)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -718,23 +686,6 @@
   </si>
   <si>
     <t>损溢合计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Decrease</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_count</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1005,10 +956,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RAW_NUMBER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RETURNFLAG</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1102,6 +1049,26 @@
   </si>
   <si>
     <t>drawing(调拔表)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECREASE_COUNT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUS_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_number</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1253,11 +1220,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,11 +1235,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1629,21 +1596,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1662,130 +1629,130 @@
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1796,84 +1763,84 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1881,24 +1848,24 @@
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1909,187 +1876,187 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>27</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>61</v>
+      <c r="C34" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>35</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
         <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>40</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
         <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2097,35 +2064,35 @@
     </row>
     <row r="51" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
         <v>22</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
         <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2136,110 +2103,110 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
         <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="14" t="s">
-        <v>120</v>
+      <c r="A60" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -2247,167 +2214,167 @@
     </row>
     <row r="66" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
         <v>10</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2416,135 +2383,135 @@
       <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2552,116 +2519,116 @@
     </row>
     <row r="96" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -2669,171 +2636,171 @@
     </row>
     <row r="108" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
         <v>22</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
         <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
         <v>53</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
         <v>14</v>
       </c>
-      <c r="B121" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="123" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
+      <c r="A123" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -2841,156 +2808,156 @@
     </row>
     <row r="125" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
         <v>22</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
         <v>10</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
         <v>49</v>
-      </c>
-      <c r="B136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3000,12 +2967,12 @@
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
